--- a/datalowonganpekerjaan.xlsx
+++ b/datalowonganpekerjaan.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1. Tesis Muhammad Adenin Baru Final Sidang\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6993B03-6B4B-4B75-87EB-BB5E8CD7E987}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="lowongankerja" sheetId="1" r:id="rId4"/>
+    <sheet name="lowongankerja" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">lowongankerja!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lowongankerja!$A$1:$F$84</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uPocGHJhndYkLwUrkmbHMVjY7P7MFO4Vw67aGkPED2Y="/>
@@ -18,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="437">
   <si>
     <t>NO</t>
   </si>
@@ -954,9 +964,6 @@
   </si>
   <si>
     <t>sementara kosongkan</t>
-  </si>
-  <si>
-    <t>Welder (Keiso), (smakan dengan kolom B) jika mau coba cek ada di KBJI 2014 (optional aja dl)</t>
   </si>
   <si>
     <t>Mampu membaca gambar teknik, memotong plat atau pipa besi menggunakan gerinda dan alat potong lainnya sesuai gambar teknis, melakukan pengelasan plat atau pipa besi dengan mesin las SMAW dan GMAW termasuk pekerjaan di ketinggian, merapikan hasil las sesuai standar kualitas, serta bekerja sesuai target dan membuat laporan pekerjaan harian</t>
@@ -1363,28 +1370,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1393,7 +1404,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1415,7 +1426,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1429,110 +1446,115 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1722,29 +1744,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.14"/>
-    <col customWidth="1" min="2" max="2" width="54.43"/>
-    <col customWidth="1" min="3" max="3" width="12.86"/>
-    <col customWidth="1" min="4" max="4" width="48.29"/>
-    <col customWidth="1" min="5" max="5" width="61.71"/>
-    <col customWidth="1" min="6" max="6" width="30.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" customWidth="1"/>
+    <col min="5" max="5" width="61.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,15 +1788,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>3114.0</v>
+        <v>3114</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -1784,15 +1808,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -1804,15 +1828,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.0" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>4321.0</v>
+        <v>4321</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1824,15 +1848,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.0" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -1844,15 +1868,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15.0" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5">
-        <v>2143.0</v>
+        <v>2143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -1864,15 +1888,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="15.0" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="5">
-        <v>2149.0</v>
+        <v>2149</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
@@ -1884,15 +1908,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="5">
-        <v>4110.0</v>
+        <v>4110</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
@@ -1904,9 +1928,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="15.0" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -1924,15 +1948,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="15.0" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5">
-        <v>3118.0</v>
+        <v>3118</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>38</v>
@@ -1944,15 +1968,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="15.0" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5">
-        <v>7212.0</v>
+        <v>7212</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>42</v>
@@ -1964,15 +1988,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>3115.0</v>
+        <v>3115</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>46</v>
@@ -1984,15 +2008,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="5">
-        <v>3142.0</v>
+        <v>3142</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>50</v>
@@ -2004,15 +2028,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5">
-        <v>8321.0</v>
+        <v>8321</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>54</v>
@@ -2024,15 +2048,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="5">
-        <v>3115.0</v>
+        <v>3115</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>58</v>
@@ -2044,15 +2068,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="5">
-        <v>7412.0</v>
+        <v>7412</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>62</v>
@@ -2064,9 +2088,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -2104,15 +2128,15 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" ht="15.0" customHeight="1">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="5">
-        <v>3114.0</v>
+        <v>3114</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>70</v>
@@ -2124,9 +2148,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="15.0" customHeight="1">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>73</v>
@@ -2144,15 +2168,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" ht="15.0" customHeight="1">
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="5">
-        <v>4110.0</v>
+        <v>4110</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>78</v>
@@ -2164,15 +2188,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="15.0" customHeight="1">
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="5">
-        <v>7412.0</v>
+        <v>7412</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>82</v>
@@ -2184,15 +2208,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="15.0" customHeight="1">
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -2204,15 +2228,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="5">
-        <v>8131.0</v>
+        <v>8131</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>89</v>
@@ -2224,15 +2248,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="5">
-        <v>3115.0</v>
+        <v>3115</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>46</v>
@@ -2244,15 +2268,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="5">
-        <v>7223.0</v>
+        <v>7223</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>96</v>
@@ -2264,15 +2288,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="5">
-        <v>7422.0</v>
+        <v>7422</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>100</v>
@@ -2284,15 +2308,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="5">
-        <v>2413.0</v>
+        <v>2413</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>104</v>
@@ -2304,9 +2328,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>107</v>
@@ -2324,15 +2348,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" ht="15.0" customHeight="1">
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="5">
-        <v>7223.0</v>
+        <v>7223</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>111</v>
@@ -2344,15 +2368,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="5">
-        <v>2132.0</v>
+        <v>2132</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>115</v>
@@ -2364,15 +2388,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" ht="15.0" customHeight="1">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="5">
-        <v>8131.0</v>
+        <v>8131</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>88</v>
@@ -2384,15 +2408,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="5">
-        <v>3132.0</v>
+        <v>3132</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>121</v>
@@ -2404,9 +2428,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>74</v>
@@ -2444,15 +2468,15 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>127</v>
@@ -2464,15 +2488,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="5">
-        <v>2149.0</v>
+        <v>2149</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>131</v>
@@ -2484,15 +2508,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="12">
-        <v>2512.0</v>
+        <v>2512</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>135</v>
@@ -2524,15 +2548,15 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C37" s="5">
-        <v>7412.0</v>
+        <v>7412</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>139</v>
@@ -2544,15 +2568,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C38" s="12">
-        <v>7212.0</v>
+        <v>7212</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>143</v>
@@ -2584,15 +2608,15 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C39" s="5">
-        <v>1420.0</v>
+        <v>1420</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>147</v>
@@ -2604,9 +2628,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>150</v>
@@ -2624,15 +2648,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C41" s="5">
-        <v>2431.0</v>
+        <v>2431</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>154</v>
@@ -2644,15 +2668,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="5">
-        <v>3114.0</v>
+        <v>3114</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
@@ -2664,15 +2688,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C43" s="12">
-        <v>7422.0</v>
+        <v>7422</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>160</v>
@@ -2704,15 +2728,15 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C44" s="5">
-        <v>3139.0</v>
+        <v>3139</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>164</v>
@@ -2724,15 +2748,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C45" s="12">
-        <v>5132.0</v>
+        <v>5132</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>167</v>
@@ -2764,15 +2788,15 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C46" s="5">
-        <v>2424.0</v>
+        <v>2424</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>171</v>
@@ -2784,9 +2808,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>174</v>
@@ -2824,15 +2848,15 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C48" s="5">
-        <v>7212.0</v>
+        <v>7212</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>42</v>
@@ -2844,15 +2868,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C49" s="5">
-        <v>2431.0</v>
+        <v>2431</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>178</v>
@@ -2864,15 +2888,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="5">
-        <v>3119.0</v>
+        <v>3119</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>182</v>
@@ -2884,15 +2908,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C51" s="5">
-        <v>8321.0</v>
+        <v>8321</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>186</v>
@@ -2904,15 +2928,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C52" s="5">
-        <v>2151.0</v>
+        <v>2151</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>190</v>
@@ -2924,15 +2948,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C53" s="5">
-        <v>3115.0</v>
+        <v>3115</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>58</v>
@@ -2944,15 +2968,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C54" s="5">
-        <v>2431.0</v>
+        <v>2431</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>197</v>
@@ -2964,15 +2988,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C55" s="5">
-        <v>3118.0</v>
+        <v>3118</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>38</v>
@@ -2984,15 +3008,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="12">
-        <v>2166.0</v>
+        <v>2166</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>204</v>
@@ -3024,15 +3048,15 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C57" s="5">
-        <v>4110.0</v>
+        <v>4110</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>208</v>
@@ -3044,9 +3068,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>211</v>
@@ -3064,15 +3088,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C59" s="5">
-        <v>7422.0</v>
+        <v>7422</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>216</v>
@@ -3084,15 +3108,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C60" s="5">
-        <v>3512.0</v>
+        <v>3512</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>220</v>
@@ -3104,15 +3128,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="5">
-        <v>7422.0</v>
+        <v>7422</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>224</v>
@@ -3124,15 +3148,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C62" s="12">
-        <v>3119.0</v>
+        <v>3119</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>182</v>
@@ -3164,15 +3188,15 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C63" s="12">
-        <v>7422.0</v>
+        <v>7422</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>160</v>
@@ -3204,15 +3228,15 @@
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C64" s="5">
-        <v>2166.0</v>
+        <v>2166</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>204</v>
@@ -3224,15 +3248,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C65" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>127</v>
@@ -3244,15 +3268,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C66" s="5">
-        <v>7411.0</v>
+        <v>7411</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>239</v>
@@ -3264,15 +3288,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C67" s="5">
-        <v>8131.0</v>
+        <v>8131</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>89</v>
@@ -3284,15 +3308,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C68" s="5">
-        <v>1324.0</v>
+        <v>1324</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>246</v>
@@ -3304,15 +3328,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C69" s="5">
-        <v>7411.0</v>
+        <v>7411</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>239</v>
@@ -3324,15 +3348,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C70" s="5">
-        <v>2166.0</v>
+        <v>2166</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>253</v>
@@ -3344,15 +3368,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C71" s="5">
-        <v>3315.0</v>
+        <v>3315</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>257</v>
@@ -3364,15 +3388,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C72" s="5">
-        <v>2143.0</v>
+        <v>2143</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>261</v>
@@ -3384,15 +3408,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C73" s="5">
-        <v>3118.0</v>
+        <v>3118</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>265</v>
@@ -3404,15 +3428,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C74" s="5">
-        <v>1323.0</v>
+        <v>1323</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>269</v>
@@ -3424,15 +3448,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C75" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
@@ -3444,15 +3468,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C76" s="5">
-        <v>5223.0</v>
+        <v>5223</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>275</v>
@@ -3464,9 +3488,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>278</v>
@@ -3484,15 +3508,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="5">
-        <v>1420.0</v>
+        <v>1420</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>283</v>
@@ -3504,15 +3528,15 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C79" s="5">
-        <v>3315.0</v>
+        <v>3315</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>287</v>
@@ -3524,15 +3548,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C80" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>291</v>
@@ -3544,15 +3568,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C81" s="5">
-        <v>7222.0</v>
+        <v>7222</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>295</v>
@@ -3564,15 +3588,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C82" s="5">
-        <v>3139.0</v>
+        <v>3139</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>299</v>
@@ -3584,15 +3608,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C83" s="5">
-        <v>7223.0</v>
+        <v>7223</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>303</v>
@@ -3604,15 +3628,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C84" s="5">
-        <v>7222.0</v>
+        <v>7222</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>307</v>
@@ -3624,9 +3648,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>310</v>
@@ -3635,5133 +3659,5131 @@
         <v>311</v>
       </c>
       <c r="D85" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
         <v>316</v>
-      </c>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="17">
-        <v>86.0</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>317</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A88" s="19">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="19">
-        <v>87.0</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="18" t="s">
         <v>167</v>
       </c>
       <c r="E88" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="17">
+        <v>88</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="17">
-        <v>88.0</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="18" t="s">
         <v>163</v>
       </c>
       <c r="E89" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="17">
+        <v>89</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" ht="102.0" customHeight="1">
-      <c r="A90" s="17">
-        <v>89.0</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="F90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="19">
+        <v>90</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="F90" s="22"/>
-    </row>
-    <row r="91" ht="159.75" customHeight="1">
-      <c r="A91" s="19">
-        <v>90.0</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>327</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E91" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="17">
-        <v>91.0</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E92" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F92" s="22"/>
+    </row>
+    <row r="93" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A93" s="17">
+        <v>92</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="F92" s="22"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="17">
-        <v>92.0</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="F93" s="22"/>
+    </row>
+    <row r="94" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="19">
+        <v>93</v>
+      </c>
+      <c r="B94" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="F93" s="22"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="19">
-        <v>93.0</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="F94" s="22"/>
+    </row>
+    <row r="95" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="17">
+        <v>94</v>
+      </c>
+      <c r="B95" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="F94" s="22"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="17">
-        <v>94.0</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="F95" s="22"/>
+    </row>
+    <row r="96" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A96" s="17">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="F95" s="22"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="17">
-        <v>95.0</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E96" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F96" s="22"/>
+    </row>
+    <row r="97" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A97" s="19">
+        <v>96</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="F96" s="22"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="19">
-        <v>96.0</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E97" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A98" s="17">
+        <v>97</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="F97" s="22"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="17">
-        <v>97.0</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E98" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="99" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A99" s="17">
+        <v>98</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="F98" s="22"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="17">
-        <v>98.0</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E99" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="F99" s="22"/>
+    </row>
+    <row r="100" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="19">
+        <v>99</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="F99" s="22"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="19">
-        <v>99.0</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>350</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E100" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="F100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="17">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="F100" s="22"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="17">
-        <v>100.0</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E101" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="F101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="F101" s="22"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="17">
-        <v>101.0</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E102" s="21" t="s">
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="19">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="F102" s="22"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="19">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>359</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E103" s="21" t="s">
+      <c r="F103" s="22"/>
+    </row>
+    <row r="104" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A104" s="17">
+        <v>103</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="F103" s="22"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="17">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>362</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="17">
+        <v>104</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="F104" s="22"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="17">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E105" s="21" t="s">
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A106" s="19">
+        <v>105</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>366</v>
-      </c>
-      <c r="F105" s="22"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="19">
-        <v>105.0</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E106" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="F106" s="22"/>
+    </row>
+    <row r="107" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A107" s="17">
+        <v>106</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>369</v>
-      </c>
-      <c r="F106" s="22"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="17">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E107" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="17">
+        <v>107</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>371</v>
-      </c>
-      <c r="F107" s="22"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="17">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>372</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E108" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A109" s="19">
+        <v>108</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="F108" s="22"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="19">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>374</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="E109" s="21" t="s">
+      <c r="F109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A110" s="17">
+        <v>109</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>376</v>
-      </c>
-      <c r="F109" s="22"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="17">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E110" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="F110" s="22"/>
+    </row>
+    <row r="111" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="17">
+        <v>110</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="F110" s="22"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="17">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>380</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="20" t="s">
         <v>142</v>
       </c>
       <c r="E111" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="19">
+        <v>111</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="19">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="20" t="s">
         <v>153</v>
       </c>
       <c r="E112" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="113" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="17">
+        <v>112</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="17">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="20" t="s">
         <v>99</v>
       </c>
       <c r="E113" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A114" s="17">
+        <v>113</v>
+      </c>
+      <c r="B114" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="F113" s="22"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="17">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="20" t="s">
         <v>157</v>
       </c>
       <c r="E114" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F114" s="22"/>
+    </row>
+    <row r="115" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="19">
+        <v>114</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="F114" s="22"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="19">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A116" s="17">
+        <v>115</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="F115" s="22"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="17">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>391</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="E116" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="F116" s="22"/>
+    </row>
+    <row r="117" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="17">
+        <v>116</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="F116" s="22"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="17">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E117" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="19">
+        <v>117</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="F117" s="22"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="19">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="20" t="s">
         <v>134</v>
       </c>
       <c r="E118" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F118" s="22"/>
+    </row>
+    <row r="119" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="17">
+        <v>118</v>
+      </c>
+      <c r="B119" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="F118" s="22"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="17">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E119" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A120" s="17">
+        <v>119</v>
+      </c>
+      <c r="B120" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="F119" s="22"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="17">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E120" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="F120" s="22"/>
+    </row>
+    <row r="121" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A121" s="17">
+        <v>120</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="F120" s="22"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="17">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E121" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="17">
+        <v>121</v>
+      </c>
+      <c r="B122" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="F121" s="22"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="17">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="19">
+        <v>122</v>
+      </c>
+      <c r="B123" s="20" t="s">
         <v>408</v>
-      </c>
-      <c r="F122" s="22"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="19">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="F123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="17">
+        <v>123</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="F123" s="22"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="17">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>412</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E124" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A125" s="17">
+        <v>124</v>
+      </c>
+      <c r="B125" s="20" t="s">
         <v>414</v>
-      </c>
-      <c r="F124" s="22"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="17">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>415</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E125" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A126" s="19">
+        <v>125</v>
+      </c>
+      <c r="B126" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="F125" s="22"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="19">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="F126" s="22"/>
+    </row>
+    <row r="127" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A127" s="17">
+        <v>126</v>
+      </c>
+      <c r="B127" s="20" t="s">
         <v>420</v>
-      </c>
-      <c r="F126" s="22"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="17">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>421</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E127" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F127" s="22"/>
+    </row>
+    <row r="128" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A128" s="17">
+        <v>127</v>
+      </c>
+      <c r="B128" s="20" t="s">
         <v>422</v>
-      </c>
-      <c r="F127" s="22"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="17">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>423</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="20" t="s">
         <v>238</v>
       </c>
       <c r="E128" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F128" s="22"/>
+    </row>
+    <row r="129" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="19">
+        <v>128</v>
+      </c>
+      <c r="B129" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="F128" s="22"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="19">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>425</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E129" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="17">
+        <v>129</v>
+      </c>
+      <c r="B130" s="20" t="s">
         <v>427</v>
-      </c>
-      <c r="F129" s="22"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="17">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>428</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="20" t="s">
         <v>294</v>
       </c>
       <c r="E130" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A131" s="17">
+        <v>130</v>
+      </c>
+      <c r="B131" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="F130" s="22"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="17">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>430</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="20" t="s">
         <v>298</v>
       </c>
       <c r="E131" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A132" s="19">
+        <v>131</v>
+      </c>
+      <c r="B132" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="F131" s="22"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="19">
-        <v>131.0</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>432</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="20" t="s">
         <v>302</v>
       </c>
       <c r="E132" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A133" s="17">
+        <v>132</v>
+      </c>
+      <c r="B133" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="F132" s="22"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="17">
-        <v>132.0</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>434</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="20" t="s">
         <v>306</v>
       </c>
       <c r="E133" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="F133" s="22"/>
+    </row>
+    <row r="134" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="17">
+        <v>133</v>
+      </c>
+      <c r="B134" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="F133" s="22"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="17">
-        <v>133.0</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>436</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="20" t="s">
         <v>268</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F134" s="22"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="24"/>
       <c r="F135" s="22"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="25"/>
       <c r="C136" s="26"/>
       <c r="E136" s="27"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="25"/>
       <c r="C137" s="26"/>
       <c r="E137" s="27"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="25"/>
       <c r="C138" s="26"/>
       <c r="E138" s="27"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="25"/>
       <c r="C139" s="26"/>
       <c r="E139" s="27"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="25"/>
       <c r="C140" s="26"/>
       <c r="E140" s="27"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="25"/>
       <c r="C141" s="26"/>
       <c r="E141" s="27"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="25"/>
       <c r="C142" s="26"/>
       <c r="E142" s="27"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="25"/>
       <c r="C143" s="26"/>
       <c r="E143" s="27"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="25"/>
       <c r="C144" s="26"/>
       <c r="E144" s="27"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="25"/>
       <c r="C145" s="26"/>
       <c r="E145" s="27"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="25"/>
       <c r="C146" s="26"/>
       <c r="E146" s="27"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="25"/>
       <c r="C147" s="26"/>
       <c r="E147" s="27"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="25"/>
       <c r="C148" s="26"/>
       <c r="E148" s="27"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="25"/>
       <c r="C149" s="26"/>
       <c r="E149" s="27"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="25"/>
       <c r="C150" s="26"/>
       <c r="E150" s="27"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="C151" s="26"/>
       <c r="E151" s="27"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="25"/>
       <c r="C152" s="26"/>
       <c r="E152" s="27"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="25"/>
       <c r="C153" s="26"/>
       <c r="E153" s="27"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="25"/>
       <c r="C154" s="26"/>
       <c r="E154" s="27"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="25"/>
       <c r="C155" s="26"/>
       <c r="E155" s="27"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="25"/>
       <c r="C156" s="26"/>
       <c r="E156" s="27"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="25"/>
       <c r="C157" s="26"/>
       <c r="E157" s="27"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="25"/>
       <c r="C158" s="26"/>
       <c r="E158" s="27"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="25"/>
       <c r="C159" s="26"/>
       <c r="E159" s="27"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="25"/>
       <c r="C160" s="26"/>
       <c r="E160" s="27"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="25"/>
       <c r="C161" s="26"/>
       <c r="E161" s="27"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="25"/>
       <c r="C162" s="26"/>
       <c r="E162" s="27"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="25"/>
       <c r="C163" s="26"/>
       <c r="E163" s="27"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="25"/>
       <c r="C164" s="26"/>
       <c r="E164" s="27"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="25"/>
       <c r="C165" s="26"/>
       <c r="E165" s="27"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="25"/>
       <c r="C166" s="26"/>
       <c r="E166" s="27"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="25"/>
       <c r="C167" s="26"/>
       <c r="E167" s="27"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="25"/>
       <c r="C168" s="26"/>
       <c r="E168" s="27"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="25"/>
       <c r="C169" s="26"/>
       <c r="E169" s="27"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="25"/>
       <c r="C170" s="26"/>
       <c r="E170" s="27"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="25"/>
       <c r="C171" s="26"/>
       <c r="E171" s="27"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="25"/>
       <c r="C172" s="26"/>
       <c r="E172" s="27"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="25"/>
       <c r="C173" s="26"/>
       <c r="E173" s="27"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="25"/>
       <c r="C174" s="26"/>
       <c r="E174" s="27"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="25"/>
       <c r="C175" s="26"/>
       <c r="E175" s="27"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="25"/>
       <c r="C176" s="26"/>
       <c r="E176" s="27"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="25"/>
       <c r="C177" s="26"/>
       <c r="E177" s="27"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="25"/>
       <c r="C178" s="26"/>
       <c r="E178" s="27"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="25"/>
       <c r="C179" s="26"/>
       <c r="E179" s="27"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="25"/>
       <c r="C180" s="26"/>
       <c r="E180" s="27"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="25"/>
       <c r="C181" s="26"/>
       <c r="E181" s="27"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="25"/>
       <c r="C182" s="26"/>
       <c r="E182" s="27"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="25"/>
       <c r="C183" s="26"/>
       <c r="E183" s="27"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="25"/>
       <c r="C184" s="26"/>
       <c r="E184" s="27"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="25"/>
       <c r="C185" s="26"/>
       <c r="E185" s="27"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="25"/>
       <c r="C186" s="26"/>
       <c r="E186" s="27"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="25"/>
       <c r="C187" s="26"/>
       <c r="E187" s="27"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="25"/>
       <c r="C188" s="26"/>
       <c r="E188" s="27"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="25"/>
       <c r="C189" s="26"/>
       <c r="E189" s="27"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="25"/>
       <c r="C190" s="26"/>
       <c r="E190" s="27"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="25"/>
       <c r="C191" s="26"/>
       <c r="E191" s="27"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="25"/>
       <c r="C192" s="26"/>
       <c r="E192" s="27"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="25"/>
       <c r="C193" s="26"/>
       <c r="E193" s="27"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="25"/>
       <c r="C194" s="26"/>
       <c r="E194" s="27"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="25"/>
       <c r="C195" s="26"/>
       <c r="E195" s="27"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="25"/>
       <c r="C196" s="26"/>
       <c r="E196" s="27"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="25"/>
       <c r="C197" s="26"/>
       <c r="E197" s="27"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="25"/>
       <c r="C198" s="26"/>
       <c r="E198" s="27"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="25"/>
       <c r="C199" s="26"/>
       <c r="E199" s="27"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="25"/>
       <c r="C200" s="26"/>
       <c r="E200" s="27"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="25"/>
       <c r="C201" s="26"/>
       <c r="E201" s="27"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="25"/>
       <c r="C202" s="26"/>
       <c r="E202" s="27"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="25"/>
       <c r="C203" s="26"/>
       <c r="E203" s="27"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="25"/>
       <c r="C204" s="26"/>
       <c r="E204" s="27"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="25"/>
       <c r="C205" s="26"/>
       <c r="E205" s="27"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="25"/>
       <c r="C206" s="26"/>
       <c r="E206" s="27"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="25"/>
       <c r="C207" s="26"/>
       <c r="E207" s="27"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="25"/>
       <c r="C208" s="26"/>
       <c r="E208" s="27"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="25"/>
       <c r="C209" s="26"/>
       <c r="E209" s="27"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="25"/>
       <c r="C210" s="26"/>
       <c r="E210" s="27"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="25"/>
       <c r="C211" s="26"/>
       <c r="E211" s="27"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="25"/>
       <c r="C212" s="26"/>
       <c r="E212" s="27"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="25"/>
       <c r="C213" s="26"/>
       <c r="E213" s="27"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="25"/>
       <c r="C214" s="26"/>
       <c r="E214" s="27"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="25"/>
       <c r="C215" s="26"/>
       <c r="E215" s="27"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="25"/>
       <c r="C216" s="26"/>
       <c r="E216" s="27"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="25"/>
       <c r="C217" s="26"/>
       <c r="E217" s="27"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="25"/>
       <c r="C218" s="26"/>
       <c r="E218" s="27"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="25"/>
       <c r="C219" s="26"/>
       <c r="E219" s="27"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="25"/>
       <c r="C220" s="26"/>
       <c r="E220" s="27"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="25"/>
       <c r="C221" s="26"/>
       <c r="E221" s="27"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="25"/>
       <c r="C222" s="26"/>
       <c r="E222" s="27"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="25"/>
       <c r="C223" s="26"/>
       <c r="E223" s="27"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="25"/>
       <c r="C224" s="26"/>
       <c r="E224" s="27"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="25"/>
       <c r="C225" s="26"/>
       <c r="E225" s="27"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="25"/>
       <c r="C226" s="26"/>
       <c r="E226" s="27"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="25"/>
       <c r="C227" s="26"/>
       <c r="E227" s="27"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="25"/>
       <c r="C228" s="26"/>
       <c r="E228" s="27"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="25"/>
       <c r="C229" s="26"/>
       <c r="E229" s="27"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="25"/>
       <c r="C230" s="26"/>
       <c r="E230" s="27"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="25"/>
       <c r="C231" s="26"/>
       <c r="E231" s="27"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="25"/>
       <c r="C232" s="26"/>
       <c r="E232" s="27"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="25"/>
       <c r="C233" s="26"/>
       <c r="E233" s="27"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="25"/>
       <c r="C234" s="26"/>
       <c r="E234" s="27"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="25"/>
       <c r="C235" s="26"/>
       <c r="E235" s="27"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="25"/>
       <c r="C236" s="26"/>
       <c r="E236" s="27"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="25"/>
       <c r="C237" s="26"/>
       <c r="E237" s="27"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="25"/>
       <c r="C238" s="26"/>
       <c r="E238" s="27"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="25"/>
       <c r="C239" s="26"/>
       <c r="E239" s="27"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="25"/>
       <c r="C240" s="26"/>
       <c r="E240" s="27"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="25"/>
       <c r="C241" s="26"/>
       <c r="E241" s="27"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="25"/>
       <c r="C242" s="26"/>
       <c r="E242" s="27"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="25"/>
       <c r="C243" s="26"/>
       <c r="E243" s="27"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="25"/>
       <c r="C244" s="26"/>
       <c r="E244" s="27"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="25"/>
       <c r="C245" s="26"/>
       <c r="E245" s="27"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="25"/>
       <c r="C246" s="26"/>
       <c r="E246" s="27"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="25"/>
       <c r="C247" s="26"/>
       <c r="E247" s="27"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="25"/>
       <c r="C248" s="26"/>
       <c r="E248" s="27"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="25"/>
       <c r="C249" s="26"/>
       <c r="E249" s="27"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="25"/>
       <c r="C250" s="26"/>
       <c r="E250" s="27"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="25"/>
       <c r="C251" s="26"/>
       <c r="E251" s="27"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="25"/>
       <c r="C252" s="26"/>
       <c r="E252" s="27"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="25"/>
       <c r="C253" s="26"/>
       <c r="E253" s="27"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="25"/>
       <c r="C254" s="26"/>
       <c r="E254" s="27"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="25"/>
       <c r="C255" s="26"/>
       <c r="E255" s="27"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="25"/>
       <c r="C256" s="26"/>
       <c r="E256" s="27"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="25"/>
       <c r="C257" s="26"/>
       <c r="E257" s="27"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="25"/>
       <c r="C258" s="26"/>
       <c r="E258" s="27"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="25"/>
       <c r="C259" s="26"/>
       <c r="E259" s="27"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="25"/>
       <c r="C260" s="26"/>
       <c r="E260" s="27"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="25"/>
       <c r="C261" s="26"/>
       <c r="E261" s="27"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="25"/>
       <c r="C262" s="26"/>
       <c r="E262" s="27"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="25"/>
       <c r="C263" s="26"/>
       <c r="E263" s="27"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="25"/>
       <c r="C264" s="26"/>
       <c r="E264" s="27"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="25"/>
       <c r="C265" s="26"/>
       <c r="E265" s="27"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="25"/>
       <c r="C266" s="26"/>
       <c r="E266" s="27"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="25"/>
       <c r="C267" s="26"/>
       <c r="E267" s="27"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="25"/>
       <c r="C268" s="26"/>
       <c r="E268" s="27"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="25"/>
       <c r="C269" s="26"/>
       <c r="E269" s="27"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="25"/>
       <c r="C270" s="26"/>
       <c r="E270" s="27"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="25"/>
       <c r="C271" s="26"/>
       <c r="E271" s="27"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="25"/>
       <c r="C272" s="26"/>
       <c r="E272" s="27"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="25"/>
       <c r="C273" s="26"/>
       <c r="E273" s="27"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="25"/>
       <c r="C274" s="26"/>
       <c r="E274" s="27"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="25"/>
       <c r="C275" s="26"/>
       <c r="E275" s="27"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="25"/>
       <c r="C276" s="26"/>
       <c r="E276" s="27"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="25"/>
       <c r="C277" s="26"/>
       <c r="E277" s="27"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="25"/>
       <c r="C278" s="26"/>
       <c r="E278" s="27"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="25"/>
       <c r="C279" s="26"/>
       <c r="E279" s="27"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="25"/>
       <c r="C280" s="26"/>
       <c r="E280" s="27"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="25"/>
       <c r="C281" s="26"/>
       <c r="E281" s="27"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="25"/>
       <c r="C282" s="26"/>
       <c r="E282" s="27"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="25"/>
       <c r="C283" s="26"/>
       <c r="E283" s="27"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="25"/>
       <c r="C284" s="26"/>
       <c r="E284" s="27"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="25"/>
       <c r="C285" s="26"/>
       <c r="E285" s="27"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="25"/>
       <c r="C286" s="26"/>
       <c r="E286" s="27"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="25"/>
       <c r="C287" s="26"/>
       <c r="E287" s="27"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="25"/>
       <c r="C288" s="26"/>
       <c r="E288" s="27"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="25"/>
       <c r="C289" s="26"/>
       <c r="E289" s="27"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="25"/>
       <c r="C290" s="26"/>
       <c r="E290" s="27"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="25"/>
       <c r="C291" s="26"/>
       <c r="E291" s="27"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="25"/>
       <c r="C292" s="26"/>
       <c r="E292" s="27"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="25"/>
       <c r="C293" s="26"/>
       <c r="E293" s="27"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="25"/>
       <c r="C294" s="26"/>
       <c r="E294" s="27"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="25"/>
       <c r="C295" s="26"/>
       <c r="E295" s="27"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="25"/>
       <c r="C296" s="26"/>
       <c r="E296" s="27"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="25"/>
       <c r="C297" s="26"/>
       <c r="E297" s="27"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="25"/>
       <c r="C298" s="26"/>
       <c r="E298" s="27"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="25"/>
       <c r="C299" s="26"/>
       <c r="E299" s="27"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="25"/>
       <c r="C300" s="26"/>
       <c r="E300" s="27"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="25"/>
       <c r="C301" s="26"/>
       <c r="E301" s="27"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="25"/>
       <c r="C302" s="26"/>
       <c r="E302" s="27"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="25"/>
       <c r="C303" s="26"/>
       <c r="E303" s="27"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="25"/>
       <c r="C304" s="26"/>
       <c r="E304" s="27"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="25"/>
       <c r="C305" s="26"/>
       <c r="E305" s="27"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="25"/>
       <c r="C306" s="26"/>
       <c r="E306" s="27"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="25"/>
       <c r="C307" s="26"/>
       <c r="E307" s="27"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="25"/>
       <c r="C308" s="26"/>
       <c r="E308" s="27"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="25"/>
       <c r="C309" s="26"/>
       <c r="E309" s="27"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="25"/>
       <c r="C310" s="26"/>
       <c r="E310" s="27"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="25"/>
       <c r="C311" s="26"/>
       <c r="E311" s="27"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="25"/>
       <c r="C312" s="26"/>
       <c r="E312" s="27"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="25"/>
       <c r="C313" s="26"/>
       <c r="E313" s="27"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="25"/>
       <c r="C314" s="26"/>
       <c r="E314" s="27"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="25"/>
       <c r="C315" s="26"/>
       <c r="E315" s="27"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="25"/>
       <c r="C316" s="26"/>
       <c r="E316" s="27"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="25"/>
       <c r="C317" s="26"/>
       <c r="E317" s="27"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="25"/>
       <c r="C318" s="26"/>
       <c r="E318" s="27"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="25"/>
       <c r="C319" s="26"/>
       <c r="E319" s="27"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="25"/>
       <c r="C320" s="26"/>
       <c r="E320" s="27"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="25"/>
       <c r="C321" s="26"/>
       <c r="E321" s="27"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="25"/>
       <c r="C322" s="26"/>
       <c r="E322" s="27"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="25"/>
       <c r="C323" s="26"/>
       <c r="E323" s="27"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="25"/>
       <c r="C324" s="26"/>
       <c r="E324" s="27"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="25"/>
       <c r="C325" s="26"/>
       <c r="E325" s="27"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="25"/>
       <c r="C326" s="26"/>
       <c r="E326" s="27"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="25"/>
       <c r="C327" s="26"/>
       <c r="E327" s="27"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="25"/>
       <c r="C328" s="26"/>
       <c r="E328" s="27"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="25"/>
       <c r="C329" s="26"/>
       <c r="E329" s="27"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="25"/>
       <c r="C330" s="26"/>
       <c r="E330" s="27"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="25"/>
       <c r="C331" s="26"/>
       <c r="E331" s="27"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="25"/>
       <c r="C332" s="26"/>
       <c r="E332" s="27"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="25"/>
       <c r="C333" s="26"/>
       <c r="E333" s="27"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="25"/>
       <c r="C334" s="26"/>
       <c r="E334" s="27"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="25"/>
       <c r="C335" s="26"/>
       <c r="E335" s="27"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="25"/>
       <c r="C336" s="26"/>
       <c r="E336" s="27"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="25"/>
       <c r="C337" s="26"/>
       <c r="E337" s="27"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="25"/>
       <c r="C338" s="26"/>
       <c r="E338" s="27"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="25"/>
       <c r="C339" s="26"/>
       <c r="E339" s="27"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="25"/>
       <c r="C340" s="26"/>
       <c r="E340" s="27"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="25"/>
       <c r="C341" s="26"/>
       <c r="E341" s="27"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="25"/>
       <c r="C342" s="26"/>
       <c r="E342" s="27"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="25"/>
       <c r="C343" s="26"/>
       <c r="E343" s="27"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="25"/>
       <c r="C344" s="26"/>
       <c r="E344" s="27"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="25"/>
       <c r="C345" s="26"/>
       <c r="E345" s="27"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="25"/>
       <c r="C346" s="26"/>
       <c r="E346" s="27"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="25"/>
       <c r="C347" s="26"/>
       <c r="E347" s="27"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="25"/>
       <c r="C348" s="26"/>
       <c r="E348" s="27"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="25"/>
       <c r="C349" s="26"/>
       <c r="E349" s="27"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="25"/>
       <c r="C350" s="26"/>
       <c r="E350" s="27"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="25"/>
       <c r="C351" s="26"/>
       <c r="E351" s="27"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="25"/>
       <c r="C352" s="26"/>
       <c r="E352" s="27"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="25"/>
       <c r="C353" s="26"/>
       <c r="E353" s="27"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="25"/>
       <c r="C354" s="26"/>
       <c r="E354" s="27"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="25"/>
       <c r="C355" s="26"/>
       <c r="E355" s="27"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="25"/>
       <c r="C356" s="26"/>
       <c r="E356" s="27"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="25"/>
       <c r="C357" s="26"/>
       <c r="E357" s="27"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="25"/>
       <c r="C358" s="26"/>
       <c r="E358" s="27"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="25"/>
       <c r="C359" s="26"/>
       <c r="E359" s="27"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="25"/>
       <c r="C360" s="26"/>
       <c r="E360" s="27"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="25"/>
       <c r="C361" s="26"/>
       <c r="E361" s="27"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="25"/>
       <c r="C362" s="26"/>
       <c r="E362" s="27"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="25"/>
       <c r="C363" s="26"/>
       <c r="E363" s="27"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="25"/>
       <c r="C364" s="26"/>
       <c r="E364" s="27"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="25"/>
       <c r="C365" s="26"/>
       <c r="E365" s="27"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="25"/>
       <c r="C366" s="26"/>
       <c r="E366" s="27"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="25"/>
       <c r="C367" s="26"/>
       <c r="E367" s="27"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="25"/>
       <c r="C368" s="26"/>
       <c r="E368" s="27"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="25"/>
       <c r="C369" s="26"/>
       <c r="E369" s="27"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="25"/>
       <c r="C370" s="26"/>
       <c r="E370" s="27"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="25"/>
       <c r="C371" s="26"/>
       <c r="E371" s="27"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="25"/>
       <c r="C372" s="26"/>
       <c r="E372" s="27"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="25"/>
       <c r="C373" s="26"/>
       <c r="E373" s="27"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="25"/>
       <c r="C374" s="26"/>
       <c r="E374" s="27"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="25"/>
       <c r="C375" s="26"/>
       <c r="E375" s="27"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="25"/>
       <c r="C376" s="26"/>
       <c r="E376" s="27"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="25"/>
       <c r="C377" s="26"/>
       <c r="E377" s="27"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="25"/>
       <c r="C378" s="26"/>
       <c r="E378" s="27"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="25"/>
       <c r="C379" s="26"/>
       <c r="E379" s="27"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="25"/>
       <c r="C380" s="26"/>
       <c r="E380" s="27"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="25"/>
       <c r="C381" s="26"/>
       <c r="E381" s="27"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="25"/>
       <c r="C382" s="26"/>
       <c r="E382" s="27"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="25"/>
       <c r="C383" s="26"/>
       <c r="E383" s="27"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="25"/>
       <c r="C384" s="26"/>
       <c r="E384" s="27"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="25"/>
       <c r="C385" s="26"/>
       <c r="E385" s="27"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="25"/>
       <c r="C386" s="26"/>
       <c r="E386" s="27"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="25"/>
       <c r="C387" s="26"/>
       <c r="E387" s="27"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="25"/>
       <c r="C388" s="26"/>
       <c r="E388" s="27"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="25"/>
       <c r="C389" s="26"/>
       <c r="E389" s="27"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="25"/>
       <c r="C390" s="26"/>
       <c r="E390" s="27"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="25"/>
       <c r="C391" s="26"/>
       <c r="E391" s="27"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="25"/>
       <c r="C392" s="26"/>
       <c r="E392" s="27"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="25"/>
       <c r="C393" s="26"/>
       <c r="E393" s="27"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="25"/>
       <c r="C394" s="26"/>
       <c r="E394" s="27"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="25"/>
       <c r="C395" s="26"/>
       <c r="E395" s="27"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="25"/>
       <c r="C396" s="26"/>
       <c r="E396" s="27"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="25"/>
       <c r="C397" s="26"/>
       <c r="E397" s="27"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="25"/>
       <c r="C398" s="26"/>
       <c r="E398" s="27"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="25"/>
       <c r="C399" s="26"/>
       <c r="E399" s="27"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="25"/>
       <c r="C400" s="26"/>
       <c r="E400" s="27"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="25"/>
       <c r="C401" s="26"/>
       <c r="E401" s="27"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="25"/>
       <c r="C402" s="26"/>
       <c r="E402" s="27"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="25"/>
       <c r="C403" s="26"/>
       <c r="E403" s="27"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="25"/>
       <c r="C404" s="26"/>
       <c r="E404" s="27"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="25"/>
       <c r="C405" s="26"/>
       <c r="E405" s="27"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="25"/>
       <c r="C406" s="26"/>
       <c r="E406" s="27"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="25"/>
       <c r="C407" s="26"/>
       <c r="E407" s="27"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="25"/>
       <c r="C408" s="26"/>
       <c r="E408" s="27"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="25"/>
       <c r="C409" s="26"/>
       <c r="E409" s="27"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="25"/>
       <c r="C410" s="26"/>
       <c r="E410" s="27"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="25"/>
       <c r="C411" s="26"/>
       <c r="E411" s="27"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="25"/>
       <c r="C412" s="26"/>
       <c r="E412" s="27"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="25"/>
       <c r="C413" s="26"/>
       <c r="E413" s="27"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="25"/>
       <c r="C414" s="26"/>
       <c r="E414" s="27"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="25"/>
       <c r="C415" s="26"/>
       <c r="E415" s="27"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="25"/>
       <c r="C416" s="26"/>
       <c r="E416" s="27"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="25"/>
       <c r="C417" s="26"/>
       <c r="E417" s="27"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="25"/>
       <c r="C418" s="26"/>
       <c r="E418" s="27"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="25"/>
       <c r="C419" s="26"/>
       <c r="E419" s="27"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="25"/>
       <c r="C420" s="26"/>
       <c r="E420" s="27"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="25"/>
       <c r="C421" s="26"/>
       <c r="E421" s="27"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="25"/>
       <c r="C422" s="26"/>
       <c r="E422" s="27"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="25"/>
       <c r="C423" s="26"/>
       <c r="E423" s="27"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="25"/>
       <c r="C424" s="26"/>
       <c r="E424" s="27"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="25"/>
       <c r="C425" s="26"/>
       <c r="E425" s="27"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="25"/>
       <c r="C426" s="26"/>
       <c r="E426" s="27"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="25"/>
       <c r="C427" s="26"/>
       <c r="E427" s="27"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="25"/>
       <c r="C428" s="26"/>
       <c r="E428" s="27"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="25"/>
       <c r="C429" s="26"/>
       <c r="E429" s="27"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="25"/>
       <c r="C430" s="26"/>
       <c r="E430" s="27"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="25"/>
       <c r="C431" s="26"/>
       <c r="E431" s="27"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="25"/>
       <c r="C432" s="26"/>
       <c r="E432" s="27"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="25"/>
       <c r="C433" s="26"/>
       <c r="E433" s="27"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="25"/>
       <c r="C434" s="26"/>
       <c r="E434" s="27"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="25"/>
       <c r="C435" s="26"/>
       <c r="E435" s="27"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="25"/>
       <c r="C436" s="26"/>
       <c r="E436" s="27"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="25"/>
       <c r="C437" s="26"/>
       <c r="E437" s="27"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="25"/>
       <c r="C438" s="26"/>
       <c r="E438" s="27"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="25"/>
       <c r="C439" s="26"/>
       <c r="E439" s="27"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="25"/>
       <c r="C440" s="26"/>
       <c r="E440" s="27"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="25"/>
       <c r="C441" s="26"/>
       <c r="E441" s="27"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="25"/>
       <c r="C442" s="26"/>
       <c r="E442" s="27"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="25"/>
       <c r="C443" s="26"/>
       <c r="E443" s="27"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="25"/>
       <c r="C444" s="26"/>
       <c r="E444" s="27"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="25"/>
       <c r="C445" s="26"/>
       <c r="E445" s="27"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="25"/>
       <c r="C446" s="26"/>
       <c r="E446" s="27"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="25"/>
       <c r="C447" s="26"/>
       <c r="E447" s="27"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="25"/>
       <c r="C448" s="26"/>
       <c r="E448" s="27"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="25"/>
       <c r="C449" s="26"/>
       <c r="E449" s="27"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="25"/>
       <c r="C450" s="26"/>
       <c r="E450" s="27"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="25"/>
       <c r="C451" s="26"/>
       <c r="E451" s="27"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="25"/>
       <c r="C452" s="26"/>
       <c r="E452" s="27"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="25"/>
       <c r="C453" s="26"/>
       <c r="E453" s="27"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="25"/>
       <c r="C454" s="26"/>
       <c r="E454" s="27"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="25"/>
       <c r="C455" s="26"/>
       <c r="E455" s="27"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="25"/>
       <c r="C456" s="26"/>
       <c r="E456" s="27"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="25"/>
       <c r="C457" s="26"/>
       <c r="E457" s="27"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="25"/>
       <c r="C458" s="26"/>
       <c r="E458" s="27"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="25"/>
       <c r="C459" s="26"/>
       <c r="E459" s="27"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="25"/>
       <c r="C460" s="26"/>
       <c r="E460" s="27"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="25"/>
       <c r="C461" s="26"/>
       <c r="E461" s="27"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="25"/>
       <c r="C462" s="26"/>
       <c r="E462" s="27"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="25"/>
       <c r="C463" s="26"/>
       <c r="E463" s="27"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="25"/>
       <c r="C464" s="26"/>
       <c r="E464" s="27"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="25"/>
       <c r="C465" s="26"/>
       <c r="E465" s="27"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="25"/>
       <c r="C466" s="26"/>
       <c r="E466" s="27"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="25"/>
       <c r="C467" s="26"/>
       <c r="E467" s="27"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="25"/>
       <c r="C468" s="26"/>
       <c r="E468" s="27"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="25"/>
       <c r="C469" s="26"/>
       <c r="E469" s="27"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="25"/>
       <c r="C470" s="26"/>
       <c r="E470" s="27"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="25"/>
       <c r="C471" s="26"/>
       <c r="E471" s="27"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="25"/>
       <c r="C472" s="26"/>
       <c r="E472" s="27"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="25"/>
       <c r="C473" s="26"/>
       <c r="E473" s="27"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="25"/>
       <c r="C474" s="26"/>
       <c r="E474" s="27"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="25"/>
       <c r="C475" s="26"/>
       <c r="E475" s="27"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="25"/>
       <c r="C476" s="26"/>
       <c r="E476" s="27"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="25"/>
       <c r="C477" s="26"/>
       <c r="E477" s="27"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="25"/>
       <c r="C478" s="26"/>
       <c r="E478" s="27"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="25"/>
       <c r="C479" s="26"/>
       <c r="E479" s="27"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="25"/>
       <c r="C480" s="26"/>
       <c r="E480" s="27"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="25"/>
       <c r="C481" s="26"/>
       <c r="E481" s="27"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="25"/>
       <c r="C482" s="26"/>
       <c r="E482" s="27"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="25"/>
       <c r="C483" s="26"/>
       <c r="E483" s="27"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="25"/>
       <c r="C484" s="26"/>
       <c r="E484" s="27"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="25"/>
       <c r="C485" s="26"/>
       <c r="E485" s="27"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="25"/>
       <c r="C486" s="26"/>
       <c r="E486" s="27"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="25"/>
       <c r="C487" s="26"/>
       <c r="E487" s="27"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="25"/>
       <c r="C488" s="26"/>
       <c r="E488" s="27"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="25"/>
       <c r="C489" s="26"/>
       <c r="E489" s="27"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="25"/>
       <c r="C490" s="26"/>
       <c r="E490" s="27"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="25"/>
       <c r="C491" s="26"/>
       <c r="E491" s="27"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="25"/>
       <c r="C492" s="26"/>
       <c r="E492" s="27"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="25"/>
       <c r="C493" s="26"/>
       <c r="E493" s="27"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="25"/>
       <c r="C494" s="26"/>
       <c r="E494" s="27"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="25"/>
       <c r="C495" s="26"/>
       <c r="E495" s="27"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="25"/>
       <c r="C496" s="26"/>
       <c r="E496" s="27"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="25"/>
       <c r="C497" s="26"/>
       <c r="E497" s="27"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="25"/>
       <c r="C498" s="26"/>
       <c r="E498" s="27"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="25"/>
       <c r="C499" s="26"/>
       <c r="E499" s="27"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="25"/>
       <c r="C500" s="26"/>
       <c r="E500" s="27"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="25"/>
       <c r="C501" s="26"/>
       <c r="E501" s="27"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="25"/>
       <c r="C502" s="26"/>
       <c r="E502" s="27"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="25"/>
       <c r="C503" s="26"/>
       <c r="E503" s="27"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="25"/>
       <c r="C504" s="26"/>
       <c r="E504" s="27"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="25"/>
       <c r="C505" s="26"/>
       <c r="E505" s="27"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="25"/>
       <c r="C506" s="26"/>
       <c r="E506" s="27"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="25"/>
       <c r="C507" s="26"/>
       <c r="E507" s="27"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="25"/>
       <c r="C508" s="26"/>
       <c r="E508" s="27"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="25"/>
       <c r="C509" s="26"/>
       <c r="E509" s="27"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="25"/>
       <c r="C510" s="26"/>
       <c r="E510" s="27"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="25"/>
       <c r="C511" s="26"/>
       <c r="E511" s="27"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="25"/>
       <c r="C512" s="26"/>
       <c r="E512" s="27"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="25"/>
       <c r="C513" s="26"/>
       <c r="E513" s="27"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="25"/>
       <c r="C514" s="26"/>
       <c r="E514" s="27"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="25"/>
       <c r="C515" s="26"/>
       <c r="E515" s="27"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="25"/>
       <c r="C516" s="26"/>
       <c r="E516" s="27"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="25"/>
       <c r="C517" s="26"/>
       <c r="E517" s="27"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="25"/>
       <c r="C518" s="26"/>
       <c r="E518" s="27"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="25"/>
       <c r="C519" s="26"/>
       <c r="E519" s="27"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="25"/>
       <c r="C520" s="26"/>
       <c r="E520" s="27"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="25"/>
       <c r="C521" s="26"/>
       <c r="E521" s="27"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="25"/>
       <c r="C522" s="26"/>
       <c r="E522" s="27"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="25"/>
       <c r="C523" s="26"/>
       <c r="E523" s="27"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="25"/>
       <c r="C524" s="26"/>
       <c r="E524" s="27"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="25"/>
       <c r="C525" s="26"/>
       <c r="E525" s="27"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="25"/>
       <c r="C526" s="26"/>
       <c r="E526" s="27"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="25"/>
       <c r="C527" s="26"/>
       <c r="E527" s="27"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="25"/>
       <c r="C528" s="26"/>
       <c r="E528" s="27"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="25"/>
       <c r="C529" s="26"/>
       <c r="E529" s="27"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="25"/>
       <c r="C530" s="26"/>
       <c r="E530" s="27"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="25"/>
       <c r="C531" s="26"/>
       <c r="E531" s="27"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="25"/>
       <c r="C532" s="26"/>
       <c r="E532" s="27"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="25"/>
       <c r="C533" s="26"/>
       <c r="E533" s="27"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="25"/>
       <c r="C534" s="26"/>
       <c r="E534" s="27"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="25"/>
       <c r="C535" s="26"/>
       <c r="E535" s="27"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="25"/>
       <c r="C536" s="26"/>
       <c r="E536" s="27"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="25"/>
       <c r="C537" s="26"/>
       <c r="E537" s="27"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="25"/>
       <c r="C538" s="26"/>
       <c r="E538" s="27"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="25"/>
       <c r="C539" s="26"/>
       <c r="E539" s="27"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="25"/>
       <c r="C540" s="26"/>
       <c r="E540" s="27"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="25"/>
       <c r="C541" s="26"/>
       <c r="E541" s="27"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="25"/>
       <c r="C542" s="26"/>
       <c r="E542" s="27"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="25"/>
       <c r="C543" s="26"/>
       <c r="E543" s="27"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="25"/>
       <c r="C544" s="26"/>
       <c r="E544" s="27"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="25"/>
       <c r="C545" s="26"/>
       <c r="E545" s="27"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="25"/>
       <c r="C546" s="26"/>
       <c r="E546" s="27"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="25"/>
       <c r="C547" s="26"/>
       <c r="E547" s="27"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="25"/>
       <c r="C548" s="26"/>
       <c r="E548" s="27"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="25"/>
       <c r="C549" s="26"/>
       <c r="E549" s="27"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="25"/>
       <c r="C550" s="26"/>
       <c r="E550" s="27"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="25"/>
       <c r="C551" s="26"/>
       <c r="E551" s="27"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="25"/>
       <c r="C552" s="26"/>
       <c r="E552" s="27"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="25"/>
       <c r="C553" s="26"/>
       <c r="E553" s="27"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="25"/>
       <c r="C554" s="26"/>
       <c r="E554" s="27"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="25"/>
       <c r="C555" s="26"/>
       <c r="E555" s="27"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="25"/>
       <c r="C556" s="26"/>
       <c r="E556" s="27"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="25"/>
       <c r="C557" s="26"/>
       <c r="E557" s="27"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="25"/>
       <c r="C558" s="26"/>
       <c r="E558" s="27"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="25"/>
       <c r="C559" s="26"/>
       <c r="E559" s="27"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="25"/>
       <c r="C560" s="26"/>
       <c r="E560" s="27"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="25"/>
       <c r="C561" s="26"/>
       <c r="E561" s="27"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="25"/>
       <c r="C562" s="26"/>
       <c r="E562" s="27"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="25"/>
       <c r="C563" s="26"/>
       <c r="E563" s="27"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="25"/>
       <c r="C564" s="26"/>
       <c r="E564" s="27"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="25"/>
       <c r="C565" s="26"/>
       <c r="E565" s="27"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="25"/>
       <c r="C566" s="26"/>
       <c r="E566" s="27"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="25"/>
       <c r="C567" s="26"/>
       <c r="E567" s="27"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="25"/>
       <c r="C568" s="26"/>
       <c r="E568" s="27"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="25"/>
       <c r="C569" s="26"/>
       <c r="E569" s="27"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="25"/>
       <c r="C570" s="26"/>
       <c r="E570" s="27"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="25"/>
       <c r="C571" s="26"/>
       <c r="E571" s="27"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="25"/>
       <c r="C572" s="26"/>
       <c r="E572" s="27"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="25"/>
       <c r="C573" s="26"/>
       <c r="E573" s="27"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="25"/>
       <c r="C574" s="26"/>
       <c r="E574" s="27"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="25"/>
       <c r="C575" s="26"/>
       <c r="E575" s="27"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="25"/>
       <c r="C576" s="26"/>
       <c r="E576" s="27"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="25"/>
       <c r="C577" s="26"/>
       <c r="E577" s="27"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="25"/>
       <c r="C578" s="26"/>
       <c r="E578" s="27"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="25"/>
       <c r="C579" s="26"/>
       <c r="E579" s="27"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="25"/>
       <c r="C580" s="26"/>
       <c r="E580" s="27"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="25"/>
       <c r="C581" s="26"/>
       <c r="E581" s="27"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="25"/>
       <c r="C582" s="26"/>
       <c r="E582" s="27"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="25"/>
       <c r="C583" s="26"/>
       <c r="E583" s="27"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="25"/>
       <c r="C584" s="26"/>
       <c r="E584" s="27"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="25"/>
       <c r="C585" s="26"/>
       <c r="E585" s="27"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="25"/>
       <c r="C586" s="26"/>
       <c r="E586" s="27"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="25"/>
       <c r="C587" s="26"/>
       <c r="E587" s="27"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="25"/>
       <c r="C588" s="26"/>
       <c r="E588" s="27"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="25"/>
       <c r="C589" s="26"/>
       <c r="E589" s="27"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="25"/>
       <c r="C590" s="26"/>
       <c r="E590" s="27"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="25"/>
       <c r="C591" s="26"/>
       <c r="E591" s="27"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="25"/>
       <c r="C592" s="26"/>
       <c r="E592" s="27"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="25"/>
       <c r="C593" s="26"/>
       <c r="E593" s="27"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="25"/>
       <c r="C594" s="26"/>
       <c r="E594" s="27"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="25"/>
       <c r="C595" s="26"/>
       <c r="E595" s="27"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="25"/>
       <c r="C596" s="26"/>
       <c r="E596" s="27"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="25"/>
       <c r="C597" s="26"/>
       <c r="E597" s="27"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="25"/>
       <c r="C598" s="26"/>
       <c r="E598" s="27"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="25"/>
       <c r="C599" s="26"/>
       <c r="E599" s="27"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="25"/>
       <c r="C600" s="26"/>
       <c r="E600" s="27"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="25"/>
       <c r="C601" s="26"/>
       <c r="E601" s="27"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="25"/>
       <c r="C602" s="26"/>
       <c r="E602" s="27"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="25"/>
       <c r="C603" s="26"/>
       <c r="E603" s="27"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="25"/>
       <c r="C604" s="26"/>
       <c r="E604" s="27"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="25"/>
       <c r="C605" s="26"/>
       <c r="E605" s="27"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="25"/>
       <c r="C606" s="26"/>
       <c r="E606" s="27"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="25"/>
       <c r="C607" s="26"/>
       <c r="E607" s="27"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="25"/>
       <c r="C608" s="26"/>
       <c r="E608" s="27"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="25"/>
       <c r="C609" s="26"/>
       <c r="E609" s="27"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="25"/>
       <c r="C610" s="26"/>
       <c r="E610" s="27"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="25"/>
       <c r="C611" s="26"/>
       <c r="E611" s="27"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="25"/>
       <c r="C612" s="26"/>
       <c r="E612" s="27"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="25"/>
       <c r="C613" s="26"/>
       <c r="E613" s="27"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="25"/>
       <c r="C614" s="26"/>
       <c r="E614" s="27"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="25"/>
       <c r="C615" s="26"/>
       <c r="E615" s="27"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="25"/>
       <c r="C616" s="26"/>
       <c r="E616" s="27"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="25"/>
       <c r="C617" s="26"/>
       <c r="E617" s="27"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="25"/>
       <c r="C618" s="26"/>
       <c r="E618" s="27"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="25"/>
       <c r="C619" s="26"/>
       <c r="E619" s="27"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="25"/>
       <c r="C620" s="26"/>
       <c r="E620" s="27"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="25"/>
       <c r="C621" s="26"/>
       <c r="E621" s="27"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="25"/>
       <c r="C622" s="26"/>
       <c r="E622" s="27"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="25"/>
       <c r="C623" s="26"/>
       <c r="E623" s="27"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="25"/>
       <c r="C624" s="26"/>
       <c r="E624" s="27"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="25"/>
       <c r="C625" s="26"/>
       <c r="E625" s="27"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="25"/>
       <c r="C626" s="26"/>
       <c r="E626" s="27"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="25"/>
       <c r="C627" s="26"/>
       <c r="E627" s="27"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="25"/>
       <c r="C628" s="26"/>
       <c r="E628" s="27"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="25"/>
       <c r="C629" s="26"/>
       <c r="E629" s="27"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="25"/>
       <c r="C630" s="26"/>
       <c r="E630" s="27"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="25"/>
       <c r="C631" s="26"/>
       <c r="E631" s="27"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="25"/>
       <c r="C632" s="26"/>
       <c r="E632" s="27"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="25"/>
       <c r="C633" s="26"/>
       <c r="E633" s="27"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="25"/>
       <c r="C634" s="26"/>
       <c r="E634" s="27"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="25"/>
       <c r="C635" s="26"/>
       <c r="E635" s="27"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="25"/>
       <c r="C636" s="26"/>
       <c r="E636" s="27"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="25"/>
       <c r="C637" s="26"/>
       <c r="E637" s="27"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="25"/>
       <c r="C638" s="26"/>
       <c r="E638" s="27"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="25"/>
       <c r="C639" s="26"/>
       <c r="E639" s="27"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="25"/>
       <c r="C640" s="26"/>
       <c r="E640" s="27"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="25"/>
       <c r="C641" s="26"/>
       <c r="E641" s="27"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="25"/>
       <c r="C642" s="26"/>
       <c r="E642" s="27"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="25"/>
       <c r="C643" s="26"/>
       <c r="E643" s="27"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="25"/>
       <c r="C644" s="26"/>
       <c r="E644" s="27"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="25"/>
       <c r="C645" s="26"/>
       <c r="E645" s="27"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="25"/>
       <c r="C646" s="26"/>
       <c r="E646" s="27"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="25"/>
       <c r="C647" s="26"/>
       <c r="E647" s="27"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="25"/>
       <c r="C648" s="26"/>
       <c r="E648" s="27"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="25"/>
       <c r="C649" s="26"/>
       <c r="E649" s="27"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="25"/>
       <c r="C650" s="26"/>
       <c r="E650" s="27"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="25"/>
       <c r="C651" s="26"/>
       <c r="E651" s="27"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="25"/>
       <c r="C652" s="26"/>
       <c r="E652" s="27"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="25"/>
       <c r="C653" s="26"/>
       <c r="E653" s="27"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="25"/>
       <c r="C654" s="26"/>
       <c r="E654" s="27"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="25"/>
       <c r="C655" s="26"/>
       <c r="E655" s="27"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="25"/>
       <c r="C656" s="26"/>
       <c r="E656" s="27"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="25"/>
       <c r="C657" s="26"/>
       <c r="E657" s="27"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="25"/>
       <c r="C658" s="26"/>
       <c r="E658" s="27"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="25"/>
       <c r="C659" s="26"/>
       <c r="E659" s="27"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="25"/>
       <c r="C660" s="26"/>
       <c r="E660" s="27"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="25"/>
       <c r="C661" s="26"/>
       <c r="E661" s="27"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="25"/>
       <c r="C662" s="26"/>
       <c r="E662" s="27"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="25"/>
       <c r="C663" s="26"/>
       <c r="E663" s="27"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="25"/>
       <c r="C664" s="26"/>
       <c r="E664" s="27"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="25"/>
       <c r="C665" s="26"/>
       <c r="E665" s="27"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="25"/>
       <c r="C666" s="26"/>
       <c r="E666" s="27"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="25"/>
       <c r="C667" s="26"/>
       <c r="E667" s="27"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="25"/>
       <c r="C668" s="26"/>
       <c r="E668" s="27"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="25"/>
       <c r="C669" s="26"/>
       <c r="E669" s="27"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="25"/>
       <c r="C670" s="26"/>
       <c r="E670" s="27"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="25"/>
       <c r="C671" s="26"/>
       <c r="E671" s="27"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="25"/>
       <c r="C672" s="26"/>
       <c r="E672" s="27"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="25"/>
       <c r="C673" s="26"/>
       <c r="E673" s="27"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="25"/>
       <c r="C674" s="26"/>
       <c r="E674" s="27"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="25"/>
       <c r="C675" s="26"/>
       <c r="E675" s="27"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="25"/>
       <c r="C676" s="26"/>
       <c r="E676" s="27"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="25"/>
       <c r="C677" s="26"/>
       <c r="E677" s="27"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="25"/>
       <c r="C678" s="26"/>
       <c r="E678" s="27"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="25"/>
       <c r="C679" s="26"/>
       <c r="E679" s="27"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="25"/>
       <c r="C680" s="26"/>
       <c r="E680" s="27"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="25"/>
       <c r="C681" s="26"/>
       <c r="E681" s="27"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="25"/>
       <c r="C682" s="26"/>
       <c r="E682" s="27"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="25"/>
       <c r="C683" s="26"/>
       <c r="E683" s="27"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="25"/>
       <c r="C684" s="26"/>
       <c r="E684" s="27"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="25"/>
       <c r="C685" s="26"/>
       <c r="E685" s="27"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="25"/>
       <c r="C686" s="26"/>
       <c r="E686" s="27"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="25"/>
       <c r="C687" s="26"/>
       <c r="E687" s="27"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="25"/>
       <c r="C688" s="26"/>
       <c r="E688" s="27"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="25"/>
       <c r="C689" s="26"/>
       <c r="E689" s="27"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="25"/>
       <c r="C690" s="26"/>
       <c r="E690" s="27"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="25"/>
       <c r="C691" s="26"/>
       <c r="E691" s="27"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="25"/>
       <c r="C692" s="26"/>
       <c r="E692" s="27"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="25"/>
       <c r="C693" s="26"/>
       <c r="E693" s="27"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="25"/>
       <c r="C694" s="26"/>
       <c r="E694" s="27"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="25"/>
       <c r="C695" s="26"/>
       <c r="E695" s="27"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="25"/>
       <c r="C696" s="26"/>
       <c r="E696" s="27"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="25"/>
       <c r="C697" s="26"/>
       <c r="E697" s="27"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="25"/>
       <c r="C698" s="26"/>
       <c r="E698" s="27"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="25"/>
       <c r="C699" s="26"/>
       <c r="E699" s="27"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="25"/>
       <c r="C700" s="26"/>
       <c r="E700" s="27"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="25"/>
       <c r="C701" s="26"/>
       <c r="E701" s="27"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="25"/>
       <c r="C702" s="26"/>
       <c r="E702" s="27"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="25"/>
       <c r="C703" s="26"/>
       <c r="E703" s="27"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="25"/>
       <c r="C704" s="26"/>
       <c r="E704" s="27"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="25"/>
       <c r="C705" s="26"/>
       <c r="E705" s="27"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="25"/>
       <c r="C706" s="26"/>
       <c r="E706" s="27"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="25"/>
       <c r="C707" s="26"/>
       <c r="E707" s="27"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="25"/>
       <c r="C708" s="26"/>
       <c r="E708" s="27"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="25"/>
       <c r="C709" s="26"/>
       <c r="E709" s="27"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="25"/>
       <c r="C710" s="26"/>
       <c r="E710" s="27"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="25"/>
       <c r="C711" s="26"/>
       <c r="E711" s="27"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="25"/>
       <c r="C712" s="26"/>
       <c r="E712" s="27"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="25"/>
       <c r="C713" s="26"/>
       <c r="E713" s="27"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="25"/>
       <c r="C714" s="26"/>
       <c r="E714" s="27"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="25"/>
       <c r="C715" s="26"/>
       <c r="E715" s="27"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="25"/>
       <c r="C716" s="26"/>
       <c r="E716" s="27"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="25"/>
       <c r="C717" s="26"/>
       <c r="E717" s="27"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="25"/>
       <c r="C718" s="26"/>
       <c r="E718" s="27"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="25"/>
       <c r="C719" s="26"/>
       <c r="E719" s="27"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="25"/>
       <c r="C720" s="26"/>
       <c r="E720" s="27"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="25"/>
       <c r="C721" s="26"/>
       <c r="E721" s="27"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="25"/>
       <c r="C722" s="26"/>
       <c r="E722" s="27"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="25"/>
       <c r="C723" s="26"/>
       <c r="E723" s="27"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="25"/>
       <c r="C724" s="26"/>
       <c r="E724" s="27"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="25"/>
       <c r="C725" s="26"/>
       <c r="E725" s="27"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="25"/>
       <c r="C726" s="26"/>
       <c r="E726" s="27"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="25"/>
       <c r="C727" s="26"/>
       <c r="E727" s="27"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="25"/>
       <c r="C728" s="26"/>
       <c r="E728" s="27"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="25"/>
       <c r="C729" s="26"/>
       <c r="E729" s="27"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="25"/>
       <c r="C730" s="26"/>
       <c r="E730" s="27"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="25"/>
       <c r="C731" s="26"/>
       <c r="E731" s="27"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="25"/>
       <c r="C732" s="26"/>
       <c r="E732" s="27"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="25"/>
       <c r="C733" s="26"/>
       <c r="E733" s="27"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="25"/>
       <c r="C734" s="26"/>
       <c r="E734" s="27"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="25"/>
       <c r="C735" s="26"/>
       <c r="E735" s="27"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="25"/>
       <c r="C736" s="26"/>
       <c r="E736" s="27"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="25"/>
       <c r="C737" s="26"/>
       <c r="E737" s="27"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="25"/>
       <c r="C738" s="26"/>
       <c r="E738" s="27"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="25"/>
       <c r="C739" s="26"/>
       <c r="E739" s="27"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="25"/>
       <c r="C740" s="26"/>
       <c r="E740" s="27"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="25"/>
       <c r="C741" s="26"/>
       <c r="E741" s="27"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="25"/>
       <c r="C742" s="26"/>
       <c r="E742" s="27"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="25"/>
       <c r="C743" s="26"/>
       <c r="E743" s="27"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="25"/>
       <c r="C744" s="26"/>
       <c r="E744" s="27"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="25"/>
       <c r="C745" s="26"/>
       <c r="E745" s="27"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="25"/>
       <c r="C746" s="26"/>
       <c r="E746" s="27"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="25"/>
       <c r="C747" s="26"/>
       <c r="E747" s="27"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="25"/>
       <c r="C748" s="26"/>
       <c r="E748" s="27"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="25"/>
       <c r="C749" s="26"/>
       <c r="E749" s="27"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="25"/>
       <c r="C750" s="26"/>
       <c r="E750" s="27"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="25"/>
       <c r="C751" s="26"/>
       <c r="E751" s="27"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="25"/>
       <c r="C752" s="26"/>
       <c r="E752" s="27"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="25"/>
       <c r="C753" s="26"/>
       <c r="E753" s="27"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="25"/>
       <c r="C754" s="26"/>
       <c r="E754" s="27"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="25"/>
       <c r="C755" s="26"/>
       <c r="E755" s="27"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="25"/>
       <c r="C756" s="26"/>
       <c r="E756" s="27"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="25"/>
       <c r="C757" s="26"/>
       <c r="E757" s="27"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="25"/>
       <c r="C758" s="26"/>
       <c r="E758" s="27"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="25"/>
       <c r="C759" s="26"/>
       <c r="E759" s="27"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="25"/>
       <c r="C760" s="26"/>
       <c r="E760" s="27"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="25"/>
       <c r="C761" s="26"/>
       <c r="E761" s="27"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="25"/>
       <c r="C762" s="26"/>
       <c r="E762" s="27"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="25"/>
       <c r="C763" s="26"/>
       <c r="E763" s="27"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="25"/>
       <c r="C764" s="26"/>
       <c r="E764" s="27"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="25"/>
       <c r="C765" s="26"/>
       <c r="E765" s="27"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="25"/>
       <c r="C766" s="26"/>
       <c r="E766" s="27"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="25"/>
       <c r="C767" s="26"/>
       <c r="E767" s="27"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="25"/>
       <c r="C768" s="26"/>
       <c r="E768" s="27"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="25"/>
       <c r="C769" s="26"/>
       <c r="E769" s="27"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="25"/>
       <c r="C770" s="26"/>
       <c r="E770" s="27"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="25"/>
       <c r="C771" s="26"/>
       <c r="E771" s="27"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="25"/>
       <c r="C772" s="26"/>
       <c r="E772" s="27"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="25"/>
       <c r="C773" s="26"/>
       <c r="E773" s="27"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="25"/>
       <c r="C774" s="26"/>
       <c r="E774" s="27"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="25"/>
       <c r="C775" s="26"/>
       <c r="E775" s="27"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="25"/>
       <c r="C776" s="26"/>
       <c r="E776" s="27"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="25"/>
       <c r="C777" s="26"/>
       <c r="E777" s="27"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="25"/>
       <c r="C778" s="26"/>
       <c r="E778" s="27"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="25"/>
       <c r="C779" s="26"/>
       <c r="E779" s="27"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="25"/>
       <c r="C780" s="26"/>
       <c r="E780" s="27"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="25"/>
       <c r="C781" s="26"/>
       <c r="E781" s="27"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="25"/>
       <c r="C782" s="26"/>
       <c r="E782" s="27"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="25"/>
       <c r="C783" s="26"/>
       <c r="E783" s="27"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="25"/>
       <c r="C784" s="26"/>
       <c r="E784" s="27"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="25"/>
       <c r="C785" s="26"/>
       <c r="E785" s="27"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="25"/>
       <c r="C786" s="26"/>
       <c r="E786" s="27"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="25"/>
       <c r="C787" s="26"/>
       <c r="E787" s="27"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="25"/>
       <c r="C788" s="26"/>
       <c r="E788" s="27"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="25"/>
       <c r="C789" s="26"/>
       <c r="E789" s="27"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="25"/>
       <c r="C790" s="26"/>
       <c r="E790" s="27"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="25"/>
       <c r="C791" s="26"/>
       <c r="E791" s="27"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="25"/>
       <c r="C792" s="26"/>
       <c r="E792" s="27"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="25"/>
       <c r="C793" s="26"/>
       <c r="E793" s="27"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="25"/>
       <c r="C794" s="26"/>
       <c r="E794" s="27"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="25"/>
       <c r="C795" s="26"/>
       <c r="E795" s="27"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="25"/>
       <c r="C796" s="26"/>
       <c r="E796" s="27"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="25"/>
       <c r="C797" s="26"/>
       <c r="E797" s="27"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="25"/>
       <c r="C798" s="26"/>
       <c r="E798" s="27"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="25"/>
       <c r="C799" s="26"/>
       <c r="E799" s="27"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="25"/>
       <c r="C800" s="26"/>
       <c r="E800" s="27"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="25"/>
       <c r="C801" s="26"/>
       <c r="E801" s="27"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="25"/>
       <c r="C802" s="26"/>
       <c r="E802" s="27"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="25"/>
       <c r="C803" s="26"/>
       <c r="E803" s="27"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="25"/>
       <c r="C804" s="26"/>
       <c r="E804" s="27"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="25"/>
       <c r="C805" s="26"/>
       <c r="E805" s="27"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="25"/>
       <c r="C806" s="26"/>
       <c r="E806" s="27"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="25"/>
       <c r="C807" s="26"/>
       <c r="E807" s="27"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="25"/>
       <c r="C808" s="26"/>
       <c r="E808" s="27"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="25"/>
       <c r="C809" s="26"/>
       <c r="E809" s="27"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="25"/>
       <c r="C810" s="26"/>
       <c r="E810" s="27"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="25"/>
       <c r="C811" s="26"/>
       <c r="E811" s="27"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="25"/>
       <c r="C812" s="26"/>
       <c r="E812" s="27"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="25"/>
       <c r="C813" s="26"/>
       <c r="E813" s="27"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="25"/>
       <c r="C814" s="26"/>
       <c r="E814" s="27"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="25"/>
       <c r="C815" s="26"/>
       <c r="E815" s="27"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="25"/>
       <c r="C816" s="26"/>
       <c r="E816" s="27"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="25"/>
       <c r="C817" s="26"/>
       <c r="E817" s="27"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="25"/>
       <c r="C818" s="26"/>
       <c r="E818" s="27"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="25"/>
       <c r="C819" s="26"/>
       <c r="E819" s="27"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="25"/>
       <c r="C820" s="26"/>
       <c r="E820" s="27"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="25"/>
       <c r="C821" s="26"/>
       <c r="E821" s="27"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="25"/>
       <c r="C822" s="26"/>
       <c r="E822" s="27"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="25"/>
       <c r="C823" s="26"/>
       <c r="E823" s="27"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="25"/>
       <c r="C824" s="26"/>
       <c r="E824" s="27"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="25"/>
       <c r="C825" s="26"/>
       <c r="E825" s="27"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="25"/>
       <c r="C826" s="26"/>
       <c r="E826" s="27"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="25"/>
       <c r="C827" s="26"/>
       <c r="E827" s="27"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="25"/>
       <c r="C828" s="26"/>
       <c r="E828" s="27"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="25"/>
       <c r="C829" s="26"/>
       <c r="E829" s="27"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="25"/>
       <c r="C830" s="26"/>
       <c r="E830" s="27"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="25"/>
       <c r="C831" s="26"/>
       <c r="E831" s="27"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="25"/>
       <c r="C832" s="26"/>
       <c r="E832" s="27"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="25"/>
       <c r="C833" s="26"/>
       <c r="E833" s="27"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="25"/>
       <c r="C834" s="26"/>
       <c r="E834" s="27"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="25"/>
       <c r="C835" s="26"/>
       <c r="E835" s="27"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="25"/>
       <c r="C836" s="26"/>
       <c r="E836" s="27"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="25"/>
       <c r="C837" s="26"/>
       <c r="E837" s="27"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="25"/>
       <c r="C838" s="26"/>
       <c r="E838" s="27"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="25"/>
       <c r="C839" s="26"/>
       <c r="E839" s="27"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="25"/>
       <c r="C840" s="26"/>
       <c r="E840" s="27"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="25"/>
       <c r="C841" s="26"/>
       <c r="E841" s="27"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="25"/>
       <c r="C842" s="26"/>
       <c r="E842" s="27"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="25"/>
       <c r="C843" s="26"/>
       <c r="E843" s="27"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="25"/>
       <c r="C844" s="26"/>
       <c r="E844" s="27"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="25"/>
       <c r="C845" s="26"/>
       <c r="E845" s="27"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="25"/>
       <c r="C846" s="26"/>
       <c r="E846" s="27"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="25"/>
       <c r="C847" s="26"/>
       <c r="E847" s="27"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="25"/>
       <c r="C848" s="26"/>
       <c r="E848" s="27"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="25"/>
       <c r="C849" s="26"/>
       <c r="E849" s="27"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="25"/>
       <c r="C850" s="26"/>
       <c r="E850" s="27"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="25"/>
       <c r="C851" s="26"/>
       <c r="E851" s="27"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="25"/>
       <c r="C852" s="26"/>
       <c r="E852" s="27"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="25"/>
       <c r="C853" s="26"/>
       <c r="E853" s="27"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="25"/>
       <c r="C854" s="26"/>
       <c r="E854" s="27"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="25"/>
       <c r="C855" s="26"/>
       <c r="E855" s="27"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="25"/>
       <c r="C856" s="26"/>
       <c r="E856" s="27"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="25"/>
       <c r="C857" s="26"/>
       <c r="E857" s="27"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="25"/>
       <c r="C858" s="26"/>
       <c r="E858" s="27"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="25"/>
       <c r="C859" s="26"/>
       <c r="E859" s="27"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="25"/>
       <c r="C860" s="26"/>
       <c r="E860" s="27"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="25"/>
       <c r="C861" s="26"/>
       <c r="E861" s="27"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="25"/>
       <c r="C862" s="26"/>
       <c r="E862" s="27"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="25"/>
       <c r="C863" s="26"/>
       <c r="E863" s="27"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="25"/>
       <c r="C864" s="26"/>
       <c r="E864" s="27"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="25"/>
       <c r="C865" s="26"/>
       <c r="E865" s="27"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="25"/>
       <c r="C866" s="26"/>
       <c r="E866" s="27"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="25"/>
       <c r="C867" s="26"/>
       <c r="E867" s="27"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="25"/>
       <c r="C868" s="26"/>
       <c r="E868" s="27"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="25"/>
       <c r="C869" s="26"/>
       <c r="E869" s="27"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="25"/>
       <c r="C870" s="26"/>
       <c r="E870" s="27"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="25"/>
       <c r="C871" s="26"/>
       <c r="E871" s="27"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="25"/>
       <c r="C872" s="26"/>
       <c r="E872" s="27"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="25"/>
       <c r="C873" s="26"/>
       <c r="E873" s="27"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="25"/>
       <c r="C874" s="26"/>
       <c r="E874" s="27"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="25"/>
       <c r="C875" s="26"/>
       <c r="E875" s="27"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="25"/>
       <c r="C876" s="26"/>
       <c r="E876" s="27"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="25"/>
       <c r="C877" s="26"/>
       <c r="E877" s="27"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="25"/>
       <c r="C878" s="26"/>
       <c r="E878" s="27"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="25"/>
       <c r="C879" s="26"/>
       <c r="E879" s="27"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="25"/>
       <c r="C880" s="26"/>
       <c r="E880" s="27"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="25"/>
       <c r="C881" s="26"/>
       <c r="E881" s="27"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="25"/>
       <c r="C882" s="26"/>
       <c r="E882" s="27"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="25"/>
       <c r="C883" s="26"/>
       <c r="E883" s="27"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="25"/>
       <c r="C884" s="26"/>
       <c r="E884" s="27"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="25"/>
       <c r="C885" s="26"/>
       <c r="E885" s="27"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="25"/>
       <c r="C886" s="26"/>
       <c r="E886" s="27"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="25"/>
       <c r="C887" s="26"/>
       <c r="E887" s="27"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="25"/>
       <c r="C888" s="26"/>
       <c r="E888" s="27"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="25"/>
       <c r="C889" s="26"/>
       <c r="E889" s="27"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="25"/>
       <c r="C890" s="26"/>
       <c r="E890" s="27"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="25"/>
       <c r="C891" s="26"/>
       <c r="E891" s="27"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="25"/>
       <c r="C892" s="26"/>
       <c r="E892" s="27"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="25"/>
       <c r="C893" s="26"/>
       <c r="E893" s="27"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="25"/>
       <c r="C894" s="26"/>
       <c r="E894" s="27"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="25"/>
       <c r="C895" s="26"/>
       <c r="E895" s="27"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="25"/>
       <c r="C896" s="26"/>
       <c r="E896" s="27"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="25"/>
       <c r="C897" s="26"/>
       <c r="E897" s="27"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="25"/>
       <c r="C898" s="26"/>
       <c r="E898" s="27"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="25"/>
       <c r="C899" s="26"/>
       <c r="E899" s="27"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="25"/>
       <c r="C900" s="26"/>
       <c r="E900" s="27"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="25"/>
       <c r="C901" s="26"/>
       <c r="E901" s="27"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="25"/>
       <c r="C902" s="26"/>
       <c r="E902" s="27"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="25"/>
       <c r="C903" s="26"/>
       <c r="E903" s="27"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="25"/>
       <c r="C904" s="26"/>
       <c r="E904" s="27"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="25"/>
       <c r="C905" s="26"/>
       <c r="E905" s="27"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="25"/>
       <c r="C906" s="26"/>
       <c r="E906" s="27"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="25"/>
       <c r="C907" s="26"/>
       <c r="E907" s="27"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="25"/>
       <c r="C908" s="26"/>
       <c r="E908" s="27"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="25"/>
       <c r="C909" s="26"/>
       <c r="E909" s="27"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="25"/>
       <c r="C910" s="26"/>
       <c r="E910" s="27"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="25"/>
       <c r="C911" s="26"/>
       <c r="E911" s="27"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="25"/>
       <c r="C912" s="26"/>
       <c r="E912" s="27"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="25"/>
       <c r="C913" s="26"/>
       <c r="E913" s="27"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="25"/>
       <c r="C914" s="26"/>
       <c r="E914" s="27"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="25"/>
       <c r="C915" s="26"/>
       <c r="E915" s="27"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="25"/>
       <c r="C916" s="26"/>
       <c r="E916" s="27"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="25"/>
       <c r="C917" s="26"/>
       <c r="E917" s="27"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="25"/>
       <c r="C918" s="26"/>
       <c r="E918" s="27"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="25"/>
       <c r="C919" s="26"/>
       <c r="E919" s="27"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="25"/>
       <c r="C920" s="26"/>
       <c r="E920" s="27"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="25"/>
       <c r="C921" s="26"/>
       <c r="E921" s="27"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="25"/>
       <c r="C922" s="26"/>
       <c r="E922" s="27"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="25"/>
       <c r="C923" s="26"/>
       <c r="E923" s="27"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="25"/>
       <c r="C924" s="26"/>
       <c r="E924" s="27"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="25"/>
       <c r="C925" s="26"/>
       <c r="E925" s="27"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="25"/>
       <c r="C926" s="26"/>
       <c r="E926" s="27"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="25"/>
       <c r="C927" s="26"/>
       <c r="E927" s="27"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="25"/>
       <c r="C928" s="26"/>
       <c r="E928" s="27"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="25"/>
       <c r="C929" s="26"/>
       <c r="E929" s="27"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="25"/>
       <c r="C930" s="26"/>
       <c r="E930" s="27"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="25"/>
       <c r="C931" s="26"/>
       <c r="E931" s="27"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="25"/>
       <c r="C932" s="26"/>
       <c r="E932" s="27"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="25"/>
       <c r="C933" s="26"/>
       <c r="E933" s="27"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="25"/>
       <c r="C934" s="26"/>
       <c r="E934" s="27"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="25"/>
       <c r="C935" s="26"/>
       <c r="E935" s="27"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="25"/>
       <c r="C936" s="26"/>
       <c r="E936" s="27"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="25"/>
       <c r="C937" s="26"/>
       <c r="E937" s="27"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="25"/>
       <c r="C938" s="26"/>
       <c r="E938" s="27"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="25"/>
       <c r="C939" s="26"/>
       <c r="E939" s="27"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="25"/>
       <c r="C940" s="26"/>
       <c r="E940" s="27"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="25"/>
       <c r="C941" s="26"/>
       <c r="E941" s="27"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="25"/>
       <c r="C942" s="26"/>
       <c r="E942" s="27"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="25"/>
       <c r="C943" s="26"/>
       <c r="E943" s="27"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="25"/>
       <c r="C944" s="26"/>
       <c r="E944" s="27"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="25"/>
       <c r="C945" s="26"/>
       <c r="E945" s="27"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="25"/>
       <c r="C946" s="26"/>
       <c r="E946" s="27"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="25"/>
       <c r="C947" s="26"/>
       <c r="E947" s="27"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="25"/>
       <c r="C948" s="26"/>
       <c r="E948" s="27"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="25"/>
       <c r="C949" s="26"/>
       <c r="E949" s="27"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="25"/>
       <c r="C950" s="26"/>
       <c r="E950" s="27"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="25"/>
       <c r="C951" s="26"/>
       <c r="E951" s="27"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="25"/>
       <c r="C952" s="26"/>
       <c r="E952" s="27"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="25"/>
       <c r="C953" s="26"/>
       <c r="E953" s="27"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="25"/>
       <c r="C954" s="26"/>
       <c r="E954" s="27"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="25"/>
       <c r="C955" s="26"/>
       <c r="E955" s="27"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="25"/>
       <c r="C956" s="26"/>
       <c r="E956" s="27"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="25"/>
       <c r="C957" s="26"/>
       <c r="E957" s="27"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="25"/>
       <c r="C958" s="26"/>
       <c r="E958" s="27"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="25"/>
       <c r="C959" s="26"/>
       <c r="E959" s="27"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="25"/>
       <c r="C960" s="26"/>
       <c r="E960" s="27"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="25"/>
       <c r="C961" s="26"/>
       <c r="E961" s="27"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="25"/>
       <c r="C962" s="26"/>
       <c r="E962" s="27"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="25"/>
       <c r="C963" s="26"/>
       <c r="E963" s="27"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="25"/>
       <c r="C964" s="26"/>
       <c r="E964" s="27"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="25"/>
       <c r="C965" s="26"/>
       <c r="E965" s="27"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="25"/>
       <c r="C966" s="26"/>
       <c r="E966" s="27"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="25"/>
       <c r="C967" s="26"/>
       <c r="E967" s="27"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="25"/>
       <c r="C968" s="26"/>
       <c r="E968" s="27"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="25"/>
       <c r="C969" s="26"/>
       <c r="E969" s="27"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="25"/>
       <c r="C970" s="26"/>
       <c r="E970" s="27"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="25"/>
       <c r="C971" s="26"/>
       <c r="E971" s="27"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="25"/>
       <c r="C972" s="26"/>
       <c r="E972" s="27"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="25"/>
       <c r="C973" s="26"/>
       <c r="E973" s="27"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="25"/>
       <c r="C974" s="26"/>
       <c r="E974" s="27"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="25"/>
       <c r="C975" s="26"/>
       <c r="E975" s="27"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="25"/>
       <c r="C976" s="26"/>
       <c r="E976" s="27"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="25"/>
       <c r="C977" s="26"/>
       <c r="E977" s="27"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="25"/>
       <c r="C978" s="26"/>
       <c r="E978" s="27"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="25"/>
       <c r="C979" s="26"/>
       <c r="E979" s="27"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="25"/>
       <c r="C980" s="26"/>
       <c r="E980" s="27"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="25"/>
       <c r="C981" s="26"/>
       <c r="E981" s="27"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="25"/>
       <c r="C982" s="26"/>
       <c r="E982" s="27"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="25"/>
       <c r="C983" s="26"/>
       <c r="E983" s="27"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="25"/>
       <c r="C984" s="26"/>
       <c r="E984" s="27"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="25"/>
       <c r="C985" s="26"/>
       <c r="E985" s="27"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="25"/>
       <c r="C986" s="26"/>
       <c r="E986" s="27"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="25"/>
       <c r="C987" s="26"/>
       <c r="E987" s="27"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="25"/>
       <c r="C988" s="26"/>
       <c r="E988" s="27"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="25"/>
       <c r="C989" s="26"/>
       <c r="E989" s="27"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="25"/>
       <c r="C990" s="26"/>
       <c r="E990" s="27"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="25"/>
       <c r="C991" s="26"/>
       <c r="E991" s="27"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="25"/>
       <c r="C992" s="26"/>
       <c r="E992" s="27"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="25"/>
       <c r="C993" s="26"/>
       <c r="E993" s="27"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="25"/>
       <c r="C994" s="26"/>
       <c r="E994" s="27"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="25"/>
       <c r="C995" s="26"/>
       <c r="E995" s="27"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="25"/>
       <c r="C996" s="26"/>
       <c r="E996" s="27"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="25"/>
       <c r="C997" s="26"/>
       <c r="E997" s="27"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="25"/>
       <c r="C998" s="26"/>
       <c r="E998" s="27"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="25"/>
       <c r="C999" s="26"/>
       <c r="E999" s="27"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="25"/>
       <c r="C1000" s="26"/>
       <c r="E1000" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$84"/>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="51" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>